--- a/artfynd/A 4056-2022.xlsx
+++ b/artfynd/A 4056-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY71"/>
+  <dimension ref="A1:AY73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9053,6 +9053,245 @@
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>112090588</v>
+      </c>
+      <c r="B72" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Knivsta (Knivsta), Upl</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>654788.2679259261</v>
+      </c>
+      <c r="R72" t="n">
+        <v>6626333.524893245</v>
+      </c>
+      <c r="S72" t="n">
+        <v>20</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Knivsta</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Alsike</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>15:59</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>15:59</t>
+        </is>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Marie Kvarnström</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>Marie Kvarnström</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>112090750</v>
+      </c>
+      <c r="B73" t="n">
+        <v>98446</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>222771</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Svart trolldruva</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Actaea spicata</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Knivsta (Knivsta), Upl</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>654798.0062938032</v>
+      </c>
+      <c r="R73" t="n">
+        <v>6626354.618875842</v>
+      </c>
+      <c r="S73" t="n">
+        <v>20</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Knivsta</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Alsike</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>16:02</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>16:02</t>
+        </is>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Marie Kvarnström</t>
+        </is>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>Marie Kvarnström</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 4056-2022.xlsx
+++ b/artfynd/A 4056-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY73"/>
+  <dimension ref="A1:AY74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9055,10 +9055,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112090588</v>
+        <v>112090750</v>
       </c>
       <c r="B72" t="n">
-        <v>89183</v>
+        <v>98446</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9071,35 +9071,48 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3215</v>
+        <v>222771</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Knivsta (Knivsta), Upl</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>654788.2679259261</v>
+        <v>654798</v>
       </c>
       <c r="R72" t="n">
-        <v>6626333.524893245</v>
+        <v>6626355</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -9131,7 +9144,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -9141,7 +9154,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9168,10 +9181,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112090750</v>
+        <v>112090588</v>
       </c>
       <c r="B73" t="n">
-        <v>98446</v>
+        <v>89183</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9184,48 +9197,35 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>222771</v>
+        <v>3215</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Knivsta (Knivsta), Upl</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>654798.0062938032</v>
+        <v>654788</v>
       </c>
       <c r="R73" t="n">
-        <v>6626354.618875842</v>
+        <v>6626334</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -9257,7 +9257,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -9267,7 +9267,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9291,6 +9291,119 @@
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>112249602</v>
+      </c>
+      <c r="B74" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Knivsta (Knivsta), Upl</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>654806</v>
+      </c>
+      <c r="R74" t="n">
+        <v>6626334</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Knivsta</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Alsike</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>15:14</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>15:14</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Marie Kvarnström</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Marie Kvarnström</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 4056-2022.xlsx
+++ b/artfynd/A 4056-2022.xlsx
@@ -9058,7 +9058,7 @@
         <v>112090750</v>
       </c>
       <c r="B72" t="n">
-        <v>98446</v>
+        <v>98872</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>112090588</v>
       </c>
       <c r="B73" t="n">
-        <v>89183</v>
+        <v>89317</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>112249602</v>
       </c>
       <c r="B74" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>

--- a/artfynd/A 4056-2022.xlsx
+++ b/artfynd/A 4056-2022.xlsx
@@ -9058,7 +9058,7 @@
         <v>112090750</v>
       </c>
       <c r="B72" t="n">
-        <v>98872</v>
+        <v>98891</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>112090588</v>
       </c>
       <c r="B73" t="n">
-        <v>89317</v>
+        <v>89331</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>112249602</v>
       </c>
       <c r="B74" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>

--- a/artfynd/A 4056-2022.xlsx
+++ b/artfynd/A 4056-2022.xlsx
@@ -9055,10 +9055,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112090750</v>
+        <v>112090588</v>
       </c>
       <c r="B72" t="n">
-        <v>98891</v>
+        <v>89331</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9071,48 +9071,35 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>222771</v>
+        <v>3215</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Knivsta (Knivsta), Upl</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>654798</v>
+        <v>654788</v>
       </c>
       <c r="R72" t="n">
-        <v>6626355</v>
+        <v>6626334</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -9144,7 +9131,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -9154,7 +9141,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9181,10 +9168,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112090588</v>
+        <v>112090750</v>
       </c>
       <c r="B73" t="n">
-        <v>89331</v>
+        <v>98891</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9197,35 +9184,48 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3215</v>
+        <v>222771</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Knivsta (Knivsta), Upl</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>654788</v>
+        <v>654798</v>
       </c>
       <c r="R73" t="n">
-        <v>6626334</v>
+        <v>6626355</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -9257,7 +9257,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -9267,7 +9267,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AD73" t="b">
